--- a/C语言课程讲义_笔记/B站鹏哥/2024_7_9 P_67 操作符详解.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_7_9 P_67 操作符详解.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1*2`3 + 1*2`2 + 1*2`1 + 0*2`0 = 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,74 @@
   </si>
   <si>
     <t>还要搞清楚初始化和赋值啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续赋值的计算是从右往左的，但是不推荐这样去写，一不好读，二不好调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老老实实写清清楚楚的代码，比什么都强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种用熟了挺不错的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正号一般没啥实际意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取地址，取的是变量在内存中的起始地址，比如int 4个字节，它取的就是第一个字节的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个例子证明size of是操作符而非函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而strlen是库函数，只适用于字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传过来的都是指针，不管int指针还是char指针，都是4or8个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x86 4字节   x64 8字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件操作符也称作三目操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右是两份功能一样的代码，右边就用了逗号表达式来简化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方框就是个操作符，操作数是arr 和 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样写都可以哦，就像3+5 = 5+3一样，arr 和 7只是两个操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但不要这样写啊，要让别人好读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里看不懂没关系，只用大致了解 -&gt; 和 .的一些特性，混个脸熟就行，后面会具体讲结构体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里只用了解两个符号左边各是什么东西就行了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +162,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1041,6 +1122,918 @@
         <a:xfrm>
           <a:off x="3105150" y="73428225"/>
           <a:ext cx="2742857" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361231</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="76571475"/>
+          <a:ext cx="5752381" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542343</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>142661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="78324075"/>
+          <a:ext cx="4657143" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352161</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>123420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="81753075"/>
+          <a:ext cx="2114286" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66217</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>170721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="80752950"/>
+          <a:ext cx="3666667" cy="5828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189851</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>161354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="87315675"/>
+          <a:ext cx="5190476" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551774</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>85483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="89363550"/>
+          <a:ext cx="5409524" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666331</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>28229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="93097350"/>
+          <a:ext cx="3352381" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266300</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>114006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="96345375"/>
+          <a:ext cx="3200000" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618561</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>170918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="99126675"/>
+          <a:ext cx="4514286" cy="4257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304202</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>18345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="103936800"/>
+          <a:ext cx="4780952" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75145</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>142277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="110404275"/>
+          <a:ext cx="8438095" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>674</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294809</xdr:colOff>
+      <xdr:row>705</xdr:row>
+      <xdr:rowOff>66014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="115652550"/>
+          <a:ext cx="3723809" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>707</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409019</xdr:colOff>
+      <xdr:row>736</xdr:row>
+      <xdr:rowOff>56536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="121329450"/>
+          <a:ext cx="4447619" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>717</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123167</xdr:colOff>
+      <xdr:row>734</xdr:row>
+      <xdr:rowOff>18694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="123015375"/>
+          <a:ext cx="5266667" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>739</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122845</xdr:colOff>
+      <xdr:row>753</xdr:row>
+      <xdr:rowOff>66371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="126739650"/>
+          <a:ext cx="7838095" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>754</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418437</xdr:colOff>
+      <xdr:row>763</xdr:row>
+      <xdr:rowOff>56960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="129349500"/>
+          <a:ext cx="5304762" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>766</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237637</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>142758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="131397375"/>
+          <a:ext cx="3904762" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>774</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608281</xdr:colOff>
+      <xdr:row>799</xdr:row>
+      <xdr:rowOff>132813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="132826125"/>
+          <a:ext cx="10552381" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>551283</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>27970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="138350625"/>
+          <a:ext cx="9333333" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>806</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>685295</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>85370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="138350625"/>
+          <a:ext cx="4038095" cy="2838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>824</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113884</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>133018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="141322425"/>
+          <a:ext cx="3323809" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590044</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>142670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="148008975"/>
+          <a:ext cx="4047619" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>436788</xdr:colOff>
+      <xdr:row>856</xdr:row>
+      <xdr:rowOff>133021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="144265650"/>
+          <a:ext cx="10895238" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>684318</xdr:colOff>
+      <xdr:row>907</xdr:row>
+      <xdr:rowOff>104050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="149809200"/>
+          <a:ext cx="11857143" cy="5800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D69:AA432"/>
+  <dimension ref="D69:AA884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD422" sqref="AD422"/>
+    <sheetView tabSelected="1" topLeftCell="A852" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z886" sqref="Z886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1406,6 +2399,129 @@
     <row r="432" spans="4:11" x14ac:dyDescent="0.15">
       <c r="K432" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M453" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M455" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O483" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J548" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="568" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I568" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="586" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L586" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L588" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="613" spans="14:22" x14ac:dyDescent="0.15">
+      <c r="N613">
+        <v>1</v>
+      </c>
+      <c r="O613">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="615" spans="14:22" x14ac:dyDescent="0.15">
+      <c r="N615">
+        <v>2</v>
+      </c>
+      <c r="O615">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="14:22" x14ac:dyDescent="0.15">
+      <c r="N617">
+        <v>3</v>
+      </c>
+      <c r="O617">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="619" spans="14:22" x14ac:dyDescent="0.15">
+      <c r="N619">
+        <v>4</v>
+      </c>
+      <c r="O619" s="2">
+        <v>1</v>
+      </c>
+      <c r="P619">
+        <v>4</v>
+      </c>
+      <c r="R619" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="621" spans="14:22" x14ac:dyDescent="0.15">
+      <c r="V621" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="715" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K715" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="758" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L758">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="774" spans="19:23" x14ac:dyDescent="0.15">
+      <c r="W774" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="782" spans="19:23" x14ac:dyDescent="0.15">
+      <c r="S782" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="811" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W811" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="828" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V828" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="830" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V830" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="881" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U881" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="884" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U884" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
